--- a/data/trans_orig/P14A35-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A35-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E80DAD52-BB32-4A34-A782-65DB760DDA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BF59D10-821B-4290-B9FD-24EC29485E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B76F3E13-640F-4254-95E6-7551028CF85B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BF9DC8C4-704E-4068-804C-EEE27B2B647C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -78,10 +78,10 @@
     <t>65,97%</t>
   </si>
   <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
   </si>
   <si>
     <t>No</t>
@@ -90,10 +90,10 @@
     <t>34,03%</t>
   </si>
   <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
   </si>
   <si>
     <t>100%</t>
@@ -105,19 +105,19 @@
     <t>72,12%</t>
   </si>
   <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
   </si>
   <si>
     <t>27,88%</t>
   </si>
   <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -126,19 +126,19 @@
     <t>69,96%</t>
   </si>
   <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
   </si>
   <si>
     <t>30,04%</t>
   </si>
   <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -147,19 +147,19 @@
     <t>65,67%</t>
   </si>
   <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
   </si>
   <si>
     <t>34,33%</t>
   </si>
   <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -171,19 +171,19 @@
     <t>68,91%</t>
   </si>
   <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
   </si>
   <si>
     <t>31,09%</t>
   </si>
   <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -195,91 +195,91 @@
     <t>52,26%</t>
   </si>
   <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
   </si>
   <si>
     <t>47,74%</t>
   </si>
   <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
   </si>
   <si>
     <t>75,23%</t>
   </si>
   <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
   </si>
   <si>
     <t>24,77%</t>
   </si>
   <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
   </si>
   <si>
     <t>69,43%</t>
   </si>
   <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
   </si>
   <si>
     <t>30,57%</t>
   </si>
   <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
   </si>
   <si>
     <t>49,99%</t>
   </si>
   <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
   </si>
   <si>
     <t>50,01%</t>
   </si>
   <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
   </si>
   <si>
     <t>62,85%</t>
   </si>
   <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
   </si>
   <si>
     <t>37,15%</t>
   </si>
   <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
   </si>
 </sst>
 </file>
@@ -691,7 +691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1B9AE0-FE53-42AD-95E5-E4490AF1AA90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8757261-3FB8-4473-92BC-4017F907D386}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1844,7 +1844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD9A75D-81B5-4724-B7FB-FF0300DAE2D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBC1041-0970-4412-A9E1-C6057D0648BA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A35-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A35-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BF59D10-821B-4290-B9FD-24EC29485E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B837BBA2-E73B-492E-B3F5-DAC19193E24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BF9DC8C4-704E-4068-804C-EEE27B2B647C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3DBBDBDB-23D2-4088-A65E-A811AD72E202}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -78,10 +78,10 @@
     <t>65,97%</t>
   </si>
   <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
   </si>
   <si>
     <t>No</t>
@@ -90,10 +90,10 @@
     <t>34,03%</t>
   </si>
   <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
   </si>
   <si>
     <t>100%</t>
@@ -105,19 +105,19 @@
     <t>72,12%</t>
   </si>
   <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
   </si>
   <si>
     <t>27,88%</t>
   </si>
   <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -126,19 +126,19 @@
     <t>69,96%</t>
   </si>
   <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
   </si>
   <si>
     <t>30,04%</t>
   </si>
   <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -147,19 +147,19 @@
     <t>65,67%</t>
   </si>
   <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
   </si>
   <si>
     <t>34,33%</t>
   </si>
   <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -171,115 +171,115 @@
     <t>68,91%</t>
   </si>
   <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
   </si>
   <si>
     <t>31,09%</t>
   </si>
   <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por dolor menstrual en 2015 (Tasa respuesta: 1,02%)</t>
+    <t>Población que recibe medicación o terapia por dolor menstrual en 2016 (Tasa respuesta: 1,02%)</t>
   </si>
   <si>
     <t>52,26%</t>
   </si>
   <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
   </si>
   <si>
     <t>47,74%</t>
   </si>
   <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
   </si>
   <si>
     <t>75,23%</t>
   </si>
   <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
   </si>
   <si>
     <t>24,77%</t>
   </si>
   <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
   </si>
   <si>
     <t>69,43%</t>
   </si>
   <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
   </si>
   <si>
     <t>30,57%</t>
   </si>
   <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
   </si>
   <si>
     <t>49,99%</t>
   </si>
   <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
   </si>
   <si>
     <t>50,01%</t>
   </si>
   <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
   </si>
   <si>
     <t>62,85%</t>
   </si>
   <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
   </si>
   <si>
     <t>37,15%</t>
   </si>
   <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
   </si>
 </sst>
 </file>
@@ -691,7 +691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8757261-3FB8-4473-92BC-4017F907D386}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BBC611-6353-4490-AC38-F53DAF03C9B8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1844,7 +1844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBC1041-0970-4412-A9E1-C6057D0648BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA51DF5-2F78-4550-ABD4-E4BE6D7C860B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
